--- a/foo.xlsx
+++ b/foo.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16100" xWindow="240" yWindow="20"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -31,69 +34,76 @@
     <t>Vivek</t>
   </si>
   <si>
+    <t>U.S.</t>
+  </si>
+  <si>
     <t>Jon</t>
   </si>
   <si>
+    <t xml:space="preserve">Japan </t>
+  </si>
+  <si>
     <t>Varun</t>
   </si>
   <si>
+    <t>Sucks</t>
+  </si>
+  <si>
     <t>Nickle</t>
   </si>
   <si>
+    <t>penny</t>
+  </si>
+  <si>
     <t>Aria</t>
   </si>
   <si>
+    <t>Greenland</t>
+  </si>
+  <si>
     <t>Shaq</t>
   </si>
   <si>
-    <t>U.S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan </t>
-  </si>
-  <si>
-    <t>Sucks</t>
-  </si>
-  <si>
-    <t>penny</t>
-  </si>
-  <si>
-    <t>Greenland</t>
-  </si>
-  <si>
     <t>Kenya</t>
+  </si>
+  <si>
+    <t>adsgo;ahg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -116,21 +126,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -177,7 +196,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,9 +228,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,6 +280,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -418,12 +473,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
@@ -440,198 +501,486 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
         <v>20</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
         <v>27</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D5">
-        <v>27</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D7" t="n">
+        <v>68</v>
+      </c>
+      <c r="E7" t="n">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="n">
         <v>12</v>
       </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" t="n">
         <v>13</v>
       </c>
-      <c r="D7">
-        <v>68</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="E13">
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="E14">
+      <c r="C15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="n">
+        <v>34</v>
+      </c>
+      <c r="E15" t="n">
         <v>14</v>
       </c>
-      <c r="D15">
-        <v>34</v>
-      </c>
-      <c r="E15">
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
+      <c r="B16" t="s">
         <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>78</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>68</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
+      <c r="E8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+      <c r="E9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="s"/>
+      <c r="E13" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="s"/>
+      <c r="E14" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="n">
+        <v>34</v>
+      </c>
+      <c r="E15" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="n">
+        <v>78</v>
+      </c>
+      <c r="E16" t="n">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/foo.xlsx
+++ b/foo.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -65,6 +65,27 @@
   </si>
   <si>
     <t>Kenya</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>Jimmy</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Harry</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Ron</t>
+  </si>
+  <si>
+    <t>Lisbon</t>
   </si>
   <si>
     <t>adsgo;ahg</t>
@@ -74,7 +95,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="164"/>
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="165"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <name val="Calibri"/>
@@ -137,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -145,6 +169,8 @@
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -721,7 +747,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -729,7 +755,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -742,8 +768,11 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
@@ -759,8 +788,9 @@
       <c r="E2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
@@ -771,13 +801,14 @@
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
@@ -793,8 +824,9 @@
       <c r="E4" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
@@ -805,13 +837,14 @@
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
@@ -822,13 +855,16 @@
         <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="4" t="n">
+        <v>43978.48476851852</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
@@ -844,8 +880,9 @@
       <c r="E7" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
@@ -855,8 +892,9 @@
       <c r="E8" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="n">
         <v>7</v>
       </c>
@@ -866,8 +904,9 @@
       <c r="E9" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" t="s"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="n">
         <v>8</v>
       </c>
@@ -877,8 +916,9 @@
       <c r="E10" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="n">
         <v>9</v>
       </c>
@@ -888,8 +928,9 @@
       <c r="E11" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="n">
         <v>10</v>
       </c>
@@ -899,8 +940,9 @@
       <c r="E12" t="n">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" t="s"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="n">
         <v>11</v>
       </c>
@@ -910,8 +952,9 @@
       <c r="E13" t="n">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" t="s"/>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="n">
         <v>12</v>
       </c>
@@ -921,8 +964,9 @@
       <c r="E14" t="n">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" t="s"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="n">
         <v>13</v>
       </c>
@@ -938,8 +982,9 @@
       <c r="E15" t="n">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" t="s"/>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="2" t="n">
         <v>14</v>
       </c>
@@ -954,6 +999,121 @@
       </c>
       <c r="E16" t="n">
         <v>15</v>
+      </c>
+      <c r="F16" t="s"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="s"/>
+      <c r="E17" t="n">
+        <v>17</v>
+      </c>
+      <c r="F17" s="4" t="n">
+        <v>43978.46803240741</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="s"/>
+      <c r="E18" t="n">
+        <v>18</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>43978.46822916667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="n">
+        <v>65</v>
+      </c>
+      <c r="E19" t="n">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="s"/>
+      <c r="E20" t="n">
+        <v>20</v>
+      </c>
+      <c r="F20" s="4" t="n">
+        <v>43978.47002314815</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="s"/>
+      <c r="E21" t="n">
+        <v>21</v>
+      </c>
+      <c r="F21" s="4" t="n">
+        <v>43978.47153935185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="n">
+        <v>13</v>
+      </c>
+      <c r="E22" t="n">
+        <v>22</v>
+      </c>
+      <c r="F22" s="4" t="n">
+        <v>43978.47153935185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="n">
+        <v>78</v>
+      </c>
+      <c r="E23" t="n">
+        <v>23</v>
+      </c>
+      <c r="F23" s="4" t="n">
+        <v>43978.48476851852</v>
       </c>
     </row>
   </sheetData>
@@ -977,7 +1137,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
